--- a/src/test/resources/case.xlsx
+++ b/src/test/resources/case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEA 2019.1\workspaces\webui\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JetBrains\IntelliJ IDEA 2019.1\workspaces\webui-ligu\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>IsNegative(是否为正用例)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id(账号)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码不符合要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码长度应为6～16个字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>casename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常登录数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +67,14 @@
   </si>
   <si>
     <t>a123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,23 +439,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -471,62 +468,50 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="D3">
         <v>123456</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case.xlsx
+++ b/src/test/resources/case.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>IsNegative(是否为正用例)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码长度应为6～16个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统未收到短信，请检查手机号是否正确或重新发送短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常登录数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +67,10 @@
   </si>
   <si>
     <t>用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,12 +438,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="56" customWidth="1"/>
   </cols>
@@ -477,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="E4">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
